--- a/Mock Data/Mock DB 01.xlsx
+++ b/Mock Data/Mock DB 01.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UC Merced\CSE 120\CSE120-Project\Mock Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB8348C-CDA2-4AF1-9974-94C89810195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00031BC4-CE07-4CB1-B6C9-A6FF01DA6332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{44701412-57BA-46CF-B953-2C9AB84D51B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{44701412-57BA-46CF-B953-2C9AB84D51B1}"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT" sheetId="1" r:id="rId1"/>
     <sheet name="PARCD" sheetId="2" r:id="rId2"/>
     <sheet name="SBXDTL" sheetId="3" r:id="rId3"/>
+    <sheet name="BXDTL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="1021">
   <si>
     <t>PARCEL</t>
   </si>
@@ -3098,6 +3099,9 @@
   </si>
   <si>
     <t>676888</t>
+  </si>
+  <si>
+    <t>BXDTL</t>
   </si>
 </sst>
 </file>
@@ -3493,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3321377E-43DD-4976-BC75-55195CCB14B2}">
   <dimension ref="A1:T364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
@@ -24227,90 +24231,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D0456E-5BE0-4C10-8CC1-9704CD7DB401}">
-  <dimension ref="A1:A364"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14.8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22.68</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13.41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13.2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13.27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>19.55</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14.4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15.93</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15.88</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21.11</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.03</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15.08</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17.95</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.03</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23.07</v>
       </c>
@@ -26027,6 +26034,539 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB93A0AB-B517-45D7-9329-0AA093354D47}">
+  <dimension ref="A1:B103"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>0</v>
       </c>
     </row>
